--- a/Python/Bases de datos/Enhanced_pizza_sell_data_2024-25.xlsx
+++ b/Python/Bases de datos/Enhanced_pizza_sell_data_2024-25.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akshay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73604f4829805a03/Desktop/Data science/Ejercicios-BIT--Viviana-Gonzalez-/Python/Bases de datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{530BF8C1-A5EA-4BF6-BF1A-75C59E083792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{530BF8C1-A5EA-4BF6-BF1A-75C59E083792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CC5950A-921F-4833-9341-1DBA7843048E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3498,7 +3511,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -3551,7 +3564,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3862,9 +3875,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
